--- a/data/223/SIDRA/old/Table 1737 indice.xlsx
+++ b/data/223/SIDRA/old/Table 1737 indice.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="514">
   <si>
     <t>Tabela 1737 - IPCA - Série histórica com número-índice, variação mensal e variações acumuladas em 3 meses, em 6 meses, no ano e em 12 meses (a partir de dezembro/1979)</t>
   </si>
@@ -1536,6 +1536,9 @@
   </si>
   <si>
     <t>outubro 2021</t>
+  </si>
+  <si>
+    <t>novembro 2021</t>
   </si>
   <si>
     <t>IPCA - Número-índice (base: dezembro de 1993 = 100) (Número-índice)</t>
@@ -1664,7 +1667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:SJ7"/>
+  <dimension ref="A1:SK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1672,7 +1675,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="504" width="19.285714285714285"/>
+    <col min="1" max="505" width="19.285714285714285"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3188,6 +3191,9 @@
       <c r="SJ1" s="1">
         <v/>
       </c>
+      <c r="SK1" s="1">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -4702,6 +4708,9 @@
       <c r="SJ2" s="2">
         <v/>
       </c>
+      <c r="SK2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -6216,6 +6225,9 @@
       <c r="SJ3" s="2">
         <v/>
       </c>
+      <c r="SK3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -7730,10 +7742,13 @@
       <c r="SJ4" t="s" s="2">
         <v>506</v>
       </c>
+      <c r="SK4" t="s" s="2">
+        <v>507</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="3">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B5" s="4">
         <v>0.0000000076183</v>
@@ -9243,47 +9258,50 @@
       </c>
       <c r="SJ5" s="4">
         <v>6018.5100000000000</v>
+      </c>
+      <c r="SK5" s="4">
+        <v>6075.6900000000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="3">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G6" t="s" s="4">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H6" t="s" s="4">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I6" t="s" s="4">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J6" t="s" s="4">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K6" t="s" s="4">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L6" t="s" s="4">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M6" t="s" s="4">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N6" s="4">
         <v>99.25</v>
@@ -10757,11 +10775,14 @@
       </c>
       <c r="SJ6" s="4">
         <v>10.67</v>
+      </c>
+      <c r="SK6" s="4">
+        <v>10.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B7" s="2">
         <v/>
@@ -12270,16 +12291,19 @@
         <v/>
       </c>
       <c r="SJ7" s="2">
+        <v/>
+      </c>
+      <c r="SK7" s="2">
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:SJ1"/>
-    <mergeCell ref="A2:SJ2"/>
+    <mergeCell ref="A1:SK1"/>
+    <mergeCell ref="A2:SK2"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:SJ3"/>
-    <mergeCell ref="A7:SJ7"/>
+    <mergeCell ref="B3:SK3"/>
+    <mergeCell ref="A7:SK7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12300,12 +12324,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="5">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
